--- a/src/data/gpt-3.5-turbo_async_evaluation.xlsx
+++ b/src/data/gpt-3.5-turbo_async_evaluation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>根據公司的特休假規定，十年以上的員工每年可享有30天的特休假。此外，公司也提供每年5天的個人假，以及14天的事假。若有其他特殊情況需要請假，可以向主管及人資部門提出申請。如果您需要進一步了解假期相關規定，可以聯繫Yui/#8836/YuiWong@wistronits.com。</t>
+          <t>根據公司的特休假規定，十年以上的員工每年可享有30天的特休假。此外，公司也提供每年5天的個人假，以及14天的事假。若有特殊情況需要照顧家庭成員，也可以請求7天的家庭照顧假。另外，公司也有提供生理假、喪假、產假等假別，詳細規定可以參考公司的假別規定。如果您有任何疑問，歡迎聯繫人資部承辦人Yui，電話號碼為#8836，電子郵件為YuiWong@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>公司有成立福委會，舉辦全公司性質的中大型活動，會以Mail公告周知所有的同仁，歡迎各位同仁報名參加。公司有團保，在同仁入職起第一天即享有住院、醫療實支實付，通過試用期考核後則會將您的配偶跟子女免費加保。端午、中秋及生日禮券額度500元及春節禮券1000元。福委會及公司之婚喪喜慶、殘歿及災害補助。優於勞基法的休假，每年多給5天的個人假，試用期考核通過後，則依當年度在職日數比例計算個人假天數。入職滿三個月，享有年度健康檢查。若有其他問題，歡迎聯絡Jason/#8845/Jasonlai@wistronits.com。</t>
+          <t>公司有成立福委會，舉辦全公司性質的中大型活動，會以Mail公告周知所有的同仁，歡迎各位同仁報名參加。公司有團保，在同仁入職起第一天即享有住院、醫療實支實付，通過試用期考核後則會將您的配偶跟子女免費加保。端午、中秋及生日禮券額度500元及春節禮券1000元。福委會及公司之婚喪喜慶、殘歿及災害補助。優於勞基法的休假，每年多給5天的個人假，試用期考核通過後，則依當年度在職日數比例計算個人假天數。入職滿三個月，享有年度健康檢查。若有其他問題，歡迎聯繫Jason/#8845/Jasonlai@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>每日公司代訂便當截止時間為10:00am。您可以透過EIP訂便當及更換廠商，也可至櫃台訂購便當，費用以當天廠商提供餐點計費並以月結方式於當月薪資中扣除。若有任何問題，請聯絡Anita，她的聯絡方式是：Anita/#8888/AnitaChen@wistronits.com。</t>
+          <t>每日公司代訂便當截止時間為10:00am。您可以透過EIP訂便當及更換廠商，也可至櫃台訂購便當，費用以當天廠商提供餐點計費並以月結方式於當月薪資中扣除。若有任何問題，請聯絡Anita，她的聯絡方式是Anita/#8888/AnitaChen@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>請與您的部門主管聯繫，詢問加薪相關事宜。如果有其他問題，歡迎聯繫人資部的Maggie，電話02-77458839，Email MaggieWu@wistronits.com。</t>
+          <t>請與您的部門主管進行談判，若有其他相關問題，歡迎聯繫人資部門的Maggie (02-77458839/MaggieWu@wistronits.com)。</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>主要是住院、手術、意外傷害的理賠，詳情可來信跟人資部承辦人索取團保手冊。如果您有眷屬需要加保或退保，請找承辦人詢問。團保申請通常需要約一周的時間，但仍需要視保險公司的作業時間而定。若您需要申請團保理賠，請先來信向承辦人索取理賠申請書，填寫完成後，附上診斷證明及收據正本寄給承辦人處理。若您有其他問題，請聯絡Yui/#8836/YuiWong@wistronits.com。</t>
+          <t>主要是住院、手術、意外傷害的理賠，詳情可來信跟人資部承辦人索取團保手冊。如果您有眷屬需要加保，請填寫團保加保申請單，並寄給承辦人處理。若您想申請團保理賠，請先來信向承辦人索取理賠申請書，填寫完成後，附上診斷證明及收據正本寄給承辦人處理。如果您想知道眷屬是否有加退團保，請找承辦人詢問。如果您想申請加保父母於公司團保，請填寫團保加保申請單，並寄給承辦人處理。如果您想知道團保申請通常要多久才會知道結果，基本上約一周的時間，但仍需要視保險公司的作業時間而定。如果您想申請加保新生子女或新婚配偶於公司團保，請來信告知承辦人需加保子女或配偶於公司團保，承辦人將會郵件回覆相關表單及申請注意事項，填寫完成後，附上出生證明或結婚證明寄給承辦人處理。如果您想將眷屬從公司團保退保，請以mail跟承辦人索取退保申請書，填寫完畢寄回即可。如果以上FAQ無法回答您的問題，請聯絡Yui/#8836/YuiWong@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -612,8 +612,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>緯創軟體的董事長暨執行長是蕭清志(Ching Hsiao)。如果您有其他相關問題，歡迎聯繫我們的客服人員，聯絡方式如下：
-Yui/#8836/YuiWong@wistronits.com</t>
+          <t>緯創軟體的董事長暨執行長是蕭清志(Ching Hsiao)。他擁有豐富完整的軟體產業資歷，曾任美國AT&amp;T研究員、知名財經資訊系統公司Dow Jones Telerate Systems總經理，2004年加入緯創軟體，訂出緯創軟體專攻資訊委外服務的營運策略，並同步帶進全新經營管理模式，帶領緯創軟體年營收持續成長，十年內公司上市，成為國際級IT軟體外包服務領導廠商。</t>
         </is>
       </c>
     </row>
@@ -715,11 +714,11 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>很抱歉，我無法回答以上問題，請聯絡ChoyaLee@Wistronits.com。</t>
+          <t>很抱歉，我無法回答以上問題，請聯絡8855。</t>
         </is>
       </c>
     </row>
@@ -750,7 +749,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>緯創軟體是亞太地區專業的資訊服務領導廠商，全球總共有台北、新竹、台中、武漢、北京、大連、上海、廣州、深圳、珠海、香港、東京、大阪、和美國加州等營業據點。</t>
+          <t>緯創軟體在全球總共有台北、新竹、台中、武漢、北京、大連、上海、廣州、深圳、珠海、香港、東京、大阪、和美國加州等營業據點。</t>
         </is>
       </c>
     </row>
@@ -867,9 +866,9 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>請使用 SSL VPN(PaloAlto) 進行連線，使用手冊如下連結。
+          <t>同仁請使用 SSL VPN(PaloAlto) 進行連線，使用手冊如下連結。
 https://freefiles.wistronits.com/Wistronits/PaloAltoSSLVPN
-如有問題，請聯絡謝悰宇/8965/SamXie@wistronits.com。</t>
+謝悰宇/8965/SamXie@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -946,7 +945,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>公司標準工時為8小時（不含中午午休1小時）；若您的主管沒有特別要求的狀況下，採彈性上下班。上午8~10點為上班時間、下午5~7點為下班時間。例如：您早上8點上班，則最早可以5點下班離開，但若駐點於客戶現場員工，則依客戶及專案需求的上下班時間為主。Yui/#8836/YuiWong@wistronits.com</t>
+          <t>公司標準工時為8小時（不含中午午休1小時）；若您的主管沒有特別要求的狀況下，採彈性上下班。上午8~10點為上班時間、下午5~7點為下班時間。例如：您早上8點上班，則最早可以5點下班離開，但若駐點於客戶現場員工，則依客戶及專案需求的上下班時間為主。如果您有任何問題，可以聯繫Yui/#8836/YuiWong@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -976,7 +975,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>請向總務同仁登記，總務同仁會協助您進入公司。若有任何問題，請聯絡Yui/#8831/YuiWong@wistronits.com。</t>
+          <t>請向總務同仁登記，總務會協助您進入公司。若有任何問題，請聯絡Yui/#8831/YuiWong@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -991,7 +990,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>若要辦理企客方案，請洽公司櫃台專員或承辦人，索取申請表填寫，並經主管簽核後，再至指定門市辦理。</t>
+          <t>您可以先向公司櫃台專員詢問企業電信優惠方案申請資格，若符合資格，再依照申請方式辦理。若有其他疑問，也可以聯絡企業電信優惠方案承辦人Yui，電話號碼為#8836，Email為YuiWong@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1179,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>您可以向地下四樓 (B4)的停管中心租用汽、機車車位，費用分別是機車車位：1個月/400元，汽車車位：1個月/3300元。若是公司自有的汽車停車位，位於B7地下七樓，員工優惠價為平面車位2000元/月、機械車位1500元/月。請依停管中心公告為主。若有其他問題，請聯絡VicChao/#8927/VicChao@wistronits.com。</t>
+          <t>您可以向地下四樓 (B4)的停管中心租用汽、機車車位，費用分別是機車車位：1個月/400元，汽車車位：1個月/3300元。若是公司自有的汽車停車位，位於B7地下七樓，員工優惠價為平面車位2000元/月、機械車位1500元/月。請依停管中心公告為主。若有任何問題，請聯絡VicChao/#8927/VicChao@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -1211,10 +1210,12 @@
       <c r="C50" t="inlineStr">
         <is>
           <t>請參考下方FAQ回答：
-Answer: 請上BPM填寫資訊系統需求單，申請類別請選擇「OA及設備申請」，申請內容及細項再依您的需求填寫，並將需求說明清楚經主管核准後，IT人員就會開始幫您準備您所需要的資訊設備。
+Question: 自購電腦，公司有補助嗎？
+Answer: 有，請參考下方附件檔案【採購電腦補助管理辦法】辦理。
+\\FILES\Pub\系統設定操做手冊\TM-100 採購電腦補助管理辦法_V1.0.pdf 
 陳源勝/8815/VitoChen@wistronits.com
 謝悰宇/8965/SamXie@wistronits.com
-如果有其他問題，請聯絡以上的聯絡人。</t>
+您可以參考上述FAQ中的附件檔案，了解公司的採購電腦補助管理辦法，並聯絡相關聯絡人協助您申請補助。</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>很抱歉，我無法回答以上問題，請聯絡公司內部櫃台或相關人員詢問。</t>
+          <t>公司電話為886-2-7745-8888。</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1296,8 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>您可以參考FAQ中的問題「公司有提供教育訓練嗎？」以及「內部教育訓練課程有哪些內容？」，或是向公司的承辦人索取相關資訊。另外，公司也會透過郵件及張貼海報公告課程活動，請留意公司的通知。若有任何疑問，歡迎聯繫FAQ中提供的聯絡人。</t>
+          <t>您可以查看公司內部公告或是向主管或承辦人詢問，他們會提供相關的課程活動資訊。另外，公司也會透過郵件或張貼海報公告供同仁報名參加。如果您需要更詳細的資訊，可以聯繫以下聯絡人：
+Jason/#8845/Jasonlai@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1387,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>請在加班事實發生後的三天內，記得至HR Portal填寫加班申請單申請。加班申請流程：https://reurl.cc/QdE1mb。若有任何問題，可以聯絡以下人資部承辦人：
+          <t>請在加班事實發生後的三天內，記得至HR Portal填寫加班申請單申請。加班申請流程：https://reurl.cc/QdE1mb。若有任何問題，可以聯繫以下人資部承辦人：
 Yui/#8836/YuiWong@wistronits.com</t>
         </is>
       </c>

--- a/src/data/gpt-3.5-turbo_async_evaluation.xlsx
+++ b/src/data/gpt-3.5-turbo_async_evaluation.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>請至HR Portal提出請假申請，並等待主管核准。若有任何問題，請聯絡人資部承辦人。請假申請流程：https://reurl.cc/9XGOnO
+          <t>請至HR Portal提出請假申請，並依照公司規定辦理請假手續。若有任何問題，請聯絡人資部承辦人，聯絡方式如下：
 Yui/#8836/YuiWong@wistronits.com</t>
         </is>
       </c>
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>根據公司的特休假規定，十年以上的員工每年可享有30天的特休假。此外，公司也提供每年5天的個人假，以及14天的事假。若有特殊情況需要照顧家庭成員，也可以請求7天的家庭照顧假。另外，公司也有提供生理假、喪假、產假等假別，詳細規定可以參考公司的假別規定。如果您有任何疑問，歡迎聯繫人資部承辦人Yui，電話號碼為#8836，電子郵件為YuiWong@wistronits.com。</t>
+          <t>根據公司的特休假規定，十年以上的員工每年可享有30天的特休假，此外還有個人假、事假、家庭照顧假、生理假、喪假、產假等假別可供使用。您可以至HR Portal的"我的假期查詢"中查詢您的假期餘額。若有任何疑問，歡迎來信詢問人資部承辦人。</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>公司有成立福委會，舉辦全公司性質的中大型活動，會以Mail公告周知所有的同仁，歡迎各位同仁報名參加。公司有團保，在同仁入職起第一天即享有住院、醫療實支實付，通過試用期考核後則會將您的配偶跟子女免費加保。端午、中秋及生日禮券額度500元及春節禮券1000元。福委會及公司之婚喪喜慶、殘歿及災害補助。優於勞基法的休假，每年多給5天的個人假，試用期考核通過後，則依當年度在職日數比例計算個人假天數。入職滿三個月，享有年度健康檢查。若有其他問題，歡迎聯繫Jason/#8845/Jasonlai@wistronits.com。</t>
+          <t>公司有成立福委會，舉辦全公司性質的中大型活動，會以Mail公告周知所有的同仁，歡迎各位同仁報名參加。公司有團保，在同仁入職起第一天即享有住院、醫療實支實付，通過試用期考核後則會將您的配偶跟子女免費加保。端午、中秋及生日禮券額度500元及春節禮券1000元。福委會及公司之婚喪喜慶、殘歿及災害補助。優於勞基法的休假，每年多給5天的個人假，試用期考核通過後，則依當年度在職日數比例計算個人假天數。入職滿三個月，享有年度健康檢查。若有其他問題，歡迎聯絡Jason/#8845/Jasonlai@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>每日公司代訂便當截止時間為10:00am。您可以透過EIP訂便當及更換廠商，也可至櫃台訂購便當，費用以當天廠商提供餐點計費並以月結方式於當月薪資中扣除。若有任何問題，請聯絡Anita，她的聯絡方式是Anita/#8888/AnitaChen@wistronits.com。</t>
+          <t>每日公司代訂便當截止時間為10:00am。您可以透過EIP訂便當及更換廠商，也可至櫃台訂購便當，費用以當天廠商提供餐點計費並以月結方式於當月薪資中扣除。若有任何問題，請聯絡Anita/#8888/AnitaChen@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,8 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>請與您的部門主管進行談判，若有其他相關問題，歡迎聯繫人資部門的Maggie (02-77458839/MaggieWu@wistronits.com)。</t>
+          <t>請與您的部門主管聯繫，或是與人資部門的承辦人討論相關事宜。他們會為您提供相關的薪資調整資訊和建議。以下是人資部門的聯絡方式：
+Maggie/#8839/MaggieWu@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -597,7 +598,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>主要是住院、手術、意外傷害的理賠，詳情可來信跟人資部承辦人索取團保手冊。如果您有眷屬需要加保，請填寫團保加保申請單，並寄給承辦人處理。若您想申請團保理賠，請先來信向承辦人索取理賠申請書，填寫完成後，附上診斷證明及收據正本寄給承辦人處理。如果您想知道眷屬是否有加退團保，請找承辦人詢問。如果您想申請加保父母於公司團保，請填寫團保加保申請單，並寄給承辦人處理。如果您想知道團保申請通常要多久才會知道結果，基本上約一周的時間，但仍需要視保險公司的作業時間而定。如果您想申請加保新生子女或新婚配偶於公司團保，請來信告知承辦人需加保子女或配偶於公司團保，承辦人將會郵件回覆相關表單及申請注意事項，填寫完成後，附上出生證明或結婚證明寄給承辦人處理。如果您想將眷屬從公司團保退保，請以mail跟承辦人索取退保申請書，填寫完畢寄回即可。如果以上FAQ無法回答您的問題，請聯絡Yui/#8836/YuiWong@wistronits.com。</t>
+          <t>主要是住院、手術、意外傷害的理賠，詳情可來信跟人資部承辦人索取團保手冊。若有其他問題，歡迎聯絡Yui/#8836/YuiWong@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -714,11 +715,11 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>很抱歉，我無法回答以上問題，請聯絡8855。</t>
+          <t>很抱歉，我無法回答以上問題，請聯絡ChoyaLee@Wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -733,8 +734,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>目前公司有六個社團，志工社、慢跑社、羽球社、桌遊社、瑜珈社以及玩轉音樂社，歡迎各位同仁加入。
-聯絡人：Choya/#8904/ChoyaLee@Wistronits.com</t>
+          <t>目前公司有六個社團，志工社、慢跑社、羽球社、桌遊社、瑜珈社以及玩轉音樂社，歡迎各位同仁加入。如有相關問題，可聯繫社團負責人Choya，聯絡方式為#8904或ChoyaLee@Wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>請填寫BPM表單【出差及銷差申請單】類別為【出差申請】，並在申請單中填寫預估的旅費。若需要預支旅費，需於出差事實發生前將「出差及銷差申請單」列印出送至台北財務室。預支費用請勿超估太多，以免預支費用&gt;實際費用，需匯回公司，造成麻煩。若有其他問題，請聯絡高譽慈/#8840/Elsakao@wistronits.com。</t>
+          <t>請填寫BPM表單【出差及銷差申請單】類別為【出差申請】，並於出差事實發生前將申請單列印出送至台北財務室。若需要預支旅費，請在申請單中填寫預支金額，並於出差事實發生前將申請單列印出送至台北財務室。若有任何問題，請聯絡高譽慈/#8840/Elsakao@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>是的，公司有喪葬補助。申請方式為先來信告知承辦人您的員工編號及申請事由，備妥訃聞正本2份或死亡證明影本2份，交給承辦人辦理或郵寄至新北市汐止區新台五路一段93號32樓－賴文政先生。申請對象為公司之補助將納入年度薪資所得。如有任何問題，請聯絡Jason/#8845/Jasonlai@wistronits.com。</t>
+          <t>是的，公司有喪葬補助。申請方式為先來信告知承辦人您的員工編號及申請事由，備妥訃聞正本2份或死亡證明影本2份，交給承辦人辦理或郵寄至新北市汐止區新台五路一段93號32樓－賴文政先生。申請對象為公司之補助將納入年度薪資所得。如有其他問題，請聯絡Jason/#8845/Jasonlai@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -866,9 +866,9 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>同仁請使用 SSL VPN(PaloAlto) 進行連線，使用手冊如下連結。
+          <t>請使用 SSL VPN(PaloAlto) 進行連線，使用手冊如下連結。
 https://freefiles.wistronits.com/Wistronits/PaloAltoSSLVPN
-謝悰宇/8965/SamXie@wistronits.com</t>
+如有問題，請聯絡謝悰宇/8965/SamXie@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -883,8 +883,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HRMS請假加班系統:https://hrmsportal.wistronits.com/portal
-謝悰宇/8965/SamXie@wistronits.com</t>
+          <t>HRMS請假加班系統網址為：https://hrmsportal.wistronits.com/portal。如有相關問題，請聯絡謝悰宇/8965/SamXie@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -945,7 +944,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>公司標準工時為8小時（不含中午午休1小時）；若您的主管沒有特別要求的狀況下，採彈性上下班。上午8~10點為上班時間、下午5~7點為下班時間。例如：您早上8點上班，則最早可以5點下班離開，但若駐點於客戶現場員工，則依客戶及專案需求的上下班時間為主。如果您有任何問題，可以聯繫Yui/#8836/YuiWong@wistronits.com。</t>
+          <t>公司標準工時為8小時（不含中午午休1小時）；若您的主管沒有特別要求的狀況下，採彈性上下班。上午8~10點為上班時間、下午5~7點為下班時間。例如：您早上8點上班，則最早可以5點下班離開，但若駐點於客戶現場員工，則依客戶及專案需求的上下班時間為主。Yui/#8836/YuiWong@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -960,7 +959,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>請參閱問題【我可以幫別人申請資訊系統設備嗎？】操作後，填寫資訊系統需求單，申請內容及細項再依您的需求填寫，並將需求說明清楚經主管核准後，IT人員就會開始幫您準備您所需要的資訊設備。如果無法利用FAQ來回答問題，請聯絡陳源勝/8815/VitoChen@wistronits.com或謝悰宇/8965/SamXie@wistronits.com。</t>
+          <t>請參閱問題【我可以幫別人申請資訊系統設備嗎？】操作後，填寫資訊系統需求單，並將需求說明清楚經主管核准後，IT人員就會開始幫您準備您所需要的資訊設備。如果無法利用FAQ來回答問題，請聯絡陳源勝/8815/VitoChen@wistronits.com或謝悰宇/8965/SamXie@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -975,7 +974,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>請向總務同仁登記，總務會協助您進入公司。若有任何問題，請聯絡Yui/#8831/YuiWong@wistronits.com。</t>
+          <t>請向總務同仁登記，總務同仁會協助您進入公司。若有任何問題，請聯絡Yui/#8831/YuiWong@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -990,7 +989,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>您可以先向公司櫃台專員詢問企業電信優惠方案申請資格，若符合資格，再依照申請方式辦理。若有其他疑問，也可以聯絡企業電信優惠方案承辦人Yui，電話號碼為#8836，Email為YuiWong@wistronits.com。</t>
+          <t>若要辦理企客方案，請洽公司櫃台專員或承辦人，索取申請表填寫，並經主管簽核後，再至指定門市辦理。</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1163,8 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>請向總務同仁登記。如果需要聯絡人資訊，請聯絡Anita/#8888/AnitaChen@wistronits.com。</t>
+          <t>請向總務同仁登記。聯絡人資訊如下：
+Anita/#8888/AnitaChen@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,8 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>您可以向地下四樓 (B4)的停管中心租用汽、機車車位，費用分別是機車車位：1個月/400元，汽車車位：1個月/3300元。若是公司自有的汽車停車位，位於B7地下七樓，員工優惠價為平面車位2000元/月、機械車位1500元/月。請依停管中心公告為主。若有任何問題，請聯絡VicChao/#8927/VicChao@wistronits.com。</t>
+          <t>您可以向地下四樓 (B4)的停管中心租用汽、機車車位，費用分別是機車車位：1個月/400元，汽車車位：1個月/3300元。若您是公司員工，公司自有的汽車停車位位於B7地下七樓，員工優惠價為平面車位2000元/月、機械車位1500元/月。請依停管中心公告為主。如有需要，以下是聯絡人資訊：
+VicChao/#8927/VicChao@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -1241,11 +1242,12 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>很抱歉，我無法回答以上問題，請聯絡8855。</t>
+          <t>請向總務同仁登記補發識別證。聯絡人資訊如下：
+Yui/#8831/YuiWong@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1283,7 @@
 請參考以下資訊：
 Wifi名稱：WITS-Wireless，密碼：使用網域帳密
 Wifi名稱：WITS-Guest，密碼：請詢問IT
-如果需要進一步協助，請聯絡謝悰宇/8965/SamXie@wistronits.com。</t>
+如果有其他問題，請聯絡謝悰宇/8965/SamXie@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -1296,8 +1298,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>您可以查看公司內部公告或是向主管或承辦人詢問，他們會提供相關的課程活動資訊。另外，公司也會透過郵件或張貼海報公告供同仁報名參加。如果您需要更詳細的資訊，可以聯繫以下聯絡人：
-Jason/#8845/Jasonlai@wistronits.com</t>
+          <t>您可以參考FAQ中的問題【公司有提供教育訓練嗎？】以及【內部教育訓練課程有哪些內容？】，或是向公司的承辦人索取相關資訊。另外，公司也會透過郵件及張貼海報公告課程活動，請留意公司的通知。若有任何疑問，歡迎聯繫Jason/#8845/Jasonlai@wistronits.com。</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1328,8 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>公司通常會於每年的第四季辦理年度健康檢查，公司會請健檢承辦的醫療院所至公司辦理相關健檢作業，並請各位同仁回公司參加健康檢查。如果因為公務實在走不開，則會請您跟公司合作的醫院預約時間後，親自赴院參加健康檢查。聯絡人資訊：VicChao/#8927/VicChao@wistronits.com</t>
+          <t>公司通常會於每年的第四季辦理年度健康檢查，公司會請健檢承辦的醫療院所至公司辦理相關健檢作業，並請各位同仁回公司參加健康檢查。如果因為公務實在走不開，則會請您跟公司合作的醫院預約時間後，親自赴院參加健康檢查。
+聯絡人資訊：VicChao/#8927/VicChao@wistronits.com</t>
         </is>
       </c>
     </row>
@@ -1368,11 +1370,11 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>公司的逃生出口位置會依據不同的辦公室而有所不同，建議您先詢問所在辦公室的主管或安全管理人員，以確保自身安全。</t>
+          <t>很抱歉，我無法回答以上問題，請聯絡8855。</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1389,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>請在加班事實發生後的三天內，記得至HR Portal填寫加班申請單申請。加班申請流程：https://reurl.cc/QdE1mb。若有任何問題，可以聯繫以下人資部承辦人：
+          <t>請在加班事實發生後的三天內，記得至HR Portal填寫加班申請單申請。加班申請流程：https://reurl.cc/QdE1mb。若有任何問題，可以聯絡以下人資部承辦人：
 Yui/#8836/YuiWong@wistronits.com</t>
         </is>
       </c>
